--- a/natmiOut/OldD2/LR-pairs_lrc2p/Adam17-Notch1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Adam17-Notch1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.9752447989059</v>
+        <v>20.997495</v>
       </c>
       <c r="H2">
-        <v>20.9752447989059</v>
+        <v>41.99499</v>
       </c>
       <c r="I2">
-        <v>0.1199875616979295</v>
+        <v>0.1182619877338827</v>
       </c>
       <c r="J2">
-        <v>0.1199875616979295</v>
+        <v>0.0841428544402326</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>67.0509315489811</v>
+        <v>67.073376</v>
       </c>
       <c r="N2">
-        <v>67.0509315489811</v>
+        <v>134.146752</v>
       </c>
       <c r="O2">
-        <v>0.4016786965895207</v>
+        <v>0.3886152607163267</v>
       </c>
       <c r="P2">
-        <v>0.4016786965895207</v>
+        <v>0.3201976973989085</v>
       </c>
       <c r="Q2">
-        <v>1406.409703234561</v>
+        <v>1408.37287719312</v>
       </c>
       <c r="R2">
-        <v>1406.409703234561</v>
+        <v>5633.49150877248</v>
       </c>
       <c r="S2">
-        <v>0.04819644738977903</v>
+        <v>0.04595841319603386</v>
       </c>
       <c r="T2">
-        <v>0.04819644738977903</v>
+        <v>0.026942348244334</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20.9752447989059</v>
+        <v>20.997495</v>
       </c>
       <c r="H3">
-        <v>20.9752447989059</v>
+        <v>41.99499</v>
       </c>
       <c r="I3">
-        <v>0.1199875616979295</v>
+        <v>0.1182619877338827</v>
       </c>
       <c r="J3">
-        <v>0.1199875616979295</v>
+        <v>0.0841428544402326</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.0064932287969</v>
+        <v>4.219010666666667</v>
       </c>
       <c r="N3">
-        <v>4.0064932287969</v>
+        <v>12.657032</v>
       </c>
       <c r="O3">
-        <v>0.02400150066315274</v>
+        <v>0.02444445215030819</v>
       </c>
       <c r="P3">
-        <v>0.02400150066315274</v>
+        <v>0.03021133528677833</v>
       </c>
       <c r="Q3">
-        <v>84.03717625917389</v>
+        <v>88.58865537828001</v>
       </c>
       <c r="R3">
-        <v>84.03717625917389</v>
+        <v>531.5319322696801</v>
       </c>
       <c r="S3">
-        <v>0.002879881541662937</v>
+        <v>0.00289084950036123</v>
       </c>
       <c r="T3">
-        <v>0.002879881541662937</v>
+        <v>0.002542067987480452</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20.9752447989059</v>
+        <v>20.997495</v>
       </c>
       <c r="H4">
-        <v>20.9752447989059</v>
+        <v>41.99499</v>
       </c>
       <c r="I4">
-        <v>0.1199875616979295</v>
+        <v>0.1182619877338827</v>
       </c>
       <c r="J4">
-        <v>0.1199875616979295</v>
+        <v>0.0841428544402326</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.4501840563228</v>
+        <v>12.54988666666667</v>
       </c>
       <c r="N4">
-        <v>12.4501840563228</v>
+        <v>37.64966</v>
       </c>
       <c r="O4">
-        <v>0.07458470133841665</v>
+        <v>0.07271256897710082</v>
       </c>
       <c r="P4">
-        <v>0.07458470133841665</v>
+        <v>0.0898667635266472</v>
       </c>
       <c r="Q4">
-        <v>261.145658372806</v>
+        <v>263.5161825339</v>
       </c>
       <c r="R4">
-        <v>261.145658372806</v>
+        <v>1581.0970952034</v>
       </c>
       <c r="S4">
-        <v>0.008949236453564916</v>
+        <v>0.008599132940468997</v>
       </c>
       <c r="T4">
-        <v>0.008949236453564916</v>
+        <v>0.00756164600243748</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>20.9752447989059</v>
+        <v>20.997495</v>
       </c>
       <c r="H5">
-        <v>20.9752447989059</v>
+        <v>41.99499</v>
       </c>
       <c r="I5">
-        <v>0.1199875616979295</v>
+        <v>0.1182619877338827</v>
       </c>
       <c r="J5">
-        <v>0.1199875616979295</v>
+        <v>0.0841428544402326</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.1539764918563</v>
+        <v>12.18648933333333</v>
       </c>
       <c r="N5">
-        <v>12.1539764918563</v>
+        <v>36.559468</v>
       </c>
       <c r="O5">
-        <v>0.07281022534432931</v>
+        <v>0.07060708751994335</v>
       </c>
       <c r="P5">
-        <v>0.07281022534432931</v>
+        <v>0.08726456136432641</v>
       </c>
       <c r="Q5">
-        <v>254.9326321968335</v>
+        <v>255.88574884422</v>
       </c>
       <c r="R5">
-        <v>254.9326321968335</v>
+        <v>1535.31449306532</v>
       </c>
       <c r="S5">
-        <v>0.008736321405742866</v>
+        <v>0.008350134518208723</v>
       </c>
       <c r="T5">
-        <v>0.008736321405742866</v>
+        <v>0.007342689284669262</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>20.9752447989059</v>
+        <v>20.997495</v>
       </c>
       <c r="H6">
-        <v>20.9752447989059</v>
+        <v>41.99499</v>
       </c>
       <c r="I6">
-        <v>0.1199875616979295</v>
+        <v>0.1182619877338827</v>
       </c>
       <c r="J6">
-        <v>0.1199875616979295</v>
+        <v>0.0841428544402326</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>42.5873164668638</v>
+        <v>44.80271133333334</v>
       </c>
       <c r="N6">
-        <v>42.5873164668638</v>
+        <v>134.408134</v>
       </c>
       <c r="O6">
-        <v>0.2551257286732689</v>
+        <v>0.2595816460111038</v>
       </c>
       <c r="P6">
-        <v>0.2551257286732689</v>
+        <v>0.3208215955797718</v>
       </c>
       <c r="Q6">
-        <v>893.2793882209445</v>
+        <v>940.7447072081102</v>
       </c>
       <c r="R6">
-        <v>893.2793882209445</v>
+        <v>5644.468243248661</v>
       </c>
       <c r="S6">
-        <v>0.03061191410991309</v>
+        <v>0.03069864143650623</v>
       </c>
       <c r="T6">
-        <v>0.03061191410991309</v>
+        <v>0.02699484481815191</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>20.9752447989059</v>
+        <v>20.997495</v>
       </c>
       <c r="H7">
-        <v>20.9752447989059</v>
+        <v>41.99499</v>
       </c>
       <c r="I7">
-        <v>0.1199875616979295</v>
+        <v>0.1182619877338827</v>
       </c>
       <c r="J7">
-        <v>0.1199875616979295</v>
+        <v>0.0841428544402326</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>28.6778785375313</v>
+        <v>31.7643625</v>
       </c>
       <c r="N7">
-        <v>28.6778785375313</v>
+        <v>63.528725</v>
       </c>
       <c r="O7">
-        <v>0.1717991473913118</v>
+        <v>0.1840389846252172</v>
       </c>
       <c r="P7">
-        <v>0.1717991473913118</v>
+        <v>0.1516380468435678</v>
       </c>
       <c r="Q7">
-        <v>601.5255226380085</v>
+        <v>666.9720427719375</v>
       </c>
       <c r="R7">
-        <v>601.5255226380085</v>
+        <v>2667.88817108775</v>
       </c>
       <c r="S7">
-        <v>0.02061376079726671</v>
+        <v>0.02176481614230366</v>
       </c>
       <c r="T7">
-        <v>0.02061376079726671</v>
+        <v>0.0127592581031595</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>16.523290398372</v>
+        <v>17.82618</v>
       </c>
       <c r="H8">
-        <v>16.523290398372</v>
+        <v>53.47854</v>
       </c>
       <c r="I8">
-        <v>0.09452043802754007</v>
+        <v>0.100400523038676</v>
       </c>
       <c r="J8">
-        <v>0.09452043802754007</v>
+        <v>0.1071517580286638</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>67.0509315489811</v>
+        <v>67.073376</v>
       </c>
       <c r="N8">
-        <v>67.0509315489811</v>
+        <v>134.146752</v>
       </c>
       <c r="O8">
-        <v>0.4016786965895207</v>
+        <v>0.3886152607163267</v>
       </c>
       <c r="P8">
-        <v>0.4016786965895207</v>
+        <v>0.3201976973989085</v>
       </c>
       <c r="Q8">
-        <v>1107.902013465178</v>
+        <v>1195.66207378368</v>
       </c>
       <c r="R8">
-        <v>1107.902013465178</v>
+        <v>7173.97244270208</v>
       </c>
       <c r="S8">
-        <v>0.03796684634797286</v>
+        <v>0.03901717543673066</v>
       </c>
       <c r="T8">
-        <v>0.03796684634797286</v>
+        <v>0.03430974619302316</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>16.523290398372</v>
+        <v>17.82618</v>
       </c>
       <c r="H9">
-        <v>16.523290398372</v>
+        <v>53.47854</v>
       </c>
       <c r="I9">
-        <v>0.09452043802754007</v>
+        <v>0.100400523038676</v>
       </c>
       <c r="J9">
-        <v>0.09452043802754007</v>
+        <v>0.1071517580286638</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.0064932287969</v>
+        <v>4.219010666666667</v>
       </c>
       <c r="N9">
-        <v>4.0064932287969</v>
+        <v>12.657032</v>
       </c>
       <c r="O9">
-        <v>0.02400150066315274</v>
+        <v>0.02444445215030819</v>
       </c>
       <c r="P9">
-        <v>0.02400150066315274</v>
+        <v>0.03021133528677833</v>
       </c>
       <c r="Q9">
-        <v>66.20045109852227</v>
+        <v>75.20884356592001</v>
       </c>
       <c r="R9">
-        <v>66.20045109852227</v>
+        <v>676.8795920932801</v>
       </c>
       <c r="S9">
-        <v>0.002268632355999491</v>
+        <v>0.002454235781284832</v>
       </c>
       <c r="T9">
-        <v>0.002268632355999491</v>
+        <v>0.003237197688371705</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>16.523290398372</v>
+        <v>17.82618</v>
       </c>
       <c r="H10">
-        <v>16.523290398372</v>
+        <v>53.47854</v>
       </c>
       <c r="I10">
-        <v>0.09452043802754007</v>
+        <v>0.100400523038676</v>
       </c>
       <c r="J10">
-        <v>0.09452043802754007</v>
+        <v>0.1071517580286638</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.4501840563228</v>
+        <v>12.54988666666667</v>
       </c>
       <c r="N10">
-        <v>12.4501840563228</v>
+        <v>37.64966</v>
       </c>
       <c r="O10">
-        <v>0.07458470133841665</v>
+        <v>0.07271256897710082</v>
       </c>
       <c r="P10">
-        <v>0.07458470133841665</v>
+        <v>0.0898667635266472</v>
       </c>
       <c r="Q10">
-        <v>205.7180066758027</v>
+        <v>223.7165386996</v>
       </c>
       <c r="R10">
-        <v>205.7180066758027</v>
+        <v>2013.4488482964</v>
       </c>
       <c r="S10">
-        <v>0.007049778640660395</v>
+        <v>0.007300379956786732</v>
       </c>
       <c r="T10">
-        <v>0.007049778640660395</v>
+        <v>0.009629381700226454</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>16.523290398372</v>
+        <v>17.82618</v>
       </c>
       <c r="H11">
-        <v>16.523290398372</v>
+        <v>53.47854</v>
       </c>
       <c r="I11">
-        <v>0.09452043802754007</v>
+        <v>0.100400523038676</v>
       </c>
       <c r="J11">
-        <v>0.09452043802754007</v>
+        <v>0.1071517580286638</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>12.1539764918563</v>
+        <v>12.18648933333333</v>
       </c>
       <c r="N11">
-        <v>12.1539764918563</v>
+        <v>36.559468</v>
       </c>
       <c r="O11">
-        <v>0.07281022534432931</v>
+        <v>0.07060708751994335</v>
       </c>
       <c r="P11">
-        <v>0.07281022534432931</v>
+        <v>0.08726456136432641</v>
       </c>
       <c r="Q11">
-        <v>200.8236830699282</v>
+        <v>217.23855242408</v>
       </c>
       <c r="R11">
-        <v>200.8236830699282</v>
+        <v>1955.14697181672</v>
       </c>
       <c r="S11">
-        <v>0.006882054392429906</v>
+        <v>0.007088988517239888</v>
       </c>
       <c r="T11">
-        <v>0.006882054392429906</v>
+        <v>0.009350551163787789</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>16.523290398372</v>
+        <v>17.82618</v>
       </c>
       <c r="H12">
-        <v>16.523290398372</v>
+        <v>53.47854</v>
       </c>
       <c r="I12">
-        <v>0.09452043802754007</v>
+        <v>0.100400523038676</v>
       </c>
       <c r="J12">
-        <v>0.09452043802754007</v>
+        <v>0.1071517580286638</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>42.5873164668638</v>
+        <v>44.80271133333334</v>
       </c>
       <c r="N12">
-        <v>42.5873164668638</v>
+        <v>134.408134</v>
       </c>
       <c r="O12">
-        <v>0.2551257286732689</v>
+        <v>0.2595816460111038</v>
       </c>
       <c r="P12">
-        <v>0.2551257286732689</v>
+        <v>0.3208215955797718</v>
       </c>
       <c r="Q12">
-        <v>703.6825972693604</v>
+        <v>798.6611967160402</v>
       </c>
       <c r="R12">
-        <v>703.6825972693604</v>
+        <v>7187.950770444361</v>
       </c>
       <c r="S12">
-        <v>0.02411459562629272</v>
+        <v>0.02606213303075527</v>
       </c>
       <c r="T12">
-        <v>0.02411459562629272</v>
+        <v>0.03437659797993355</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>16.523290398372</v>
+        <v>17.82618</v>
       </c>
       <c r="H13">
-        <v>16.523290398372</v>
+        <v>53.47854</v>
       </c>
       <c r="I13">
-        <v>0.09452043802754007</v>
+        <v>0.100400523038676</v>
       </c>
       <c r="J13">
-        <v>0.09452043802754007</v>
+        <v>0.1071517580286638</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>28.6778785375313</v>
+        <v>31.7643625</v>
       </c>
       <c r="N13">
-        <v>28.6778785375313</v>
+        <v>63.528725</v>
       </c>
       <c r="O13">
-        <v>0.1717991473913118</v>
+        <v>0.1840389846252172</v>
       </c>
       <c r="P13">
-        <v>0.1717991473913118</v>
+        <v>0.1516380468435678</v>
       </c>
       <c r="Q13">
-        <v>473.8529150848694</v>
+        <v>566.23724351025</v>
       </c>
       <c r="R13">
-        <v>473.8529150848694</v>
+        <v>3397.4234610615</v>
       </c>
       <c r="S13">
-        <v>0.0162385306641847</v>
+        <v>0.01847761031587867</v>
       </c>
       <c r="T13">
-        <v>0.0162385306641847</v>
+        <v>0.01624828330332117</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>45.9326989397661</v>
+        <v>46.51111466666666</v>
       </c>
       <c r="H14">
-        <v>45.9326989397661</v>
+        <v>139.533344</v>
       </c>
       <c r="I14">
-        <v>0.2627551001585968</v>
+        <v>0.2619596705320584</v>
       </c>
       <c r="J14">
-        <v>0.2627551001585968</v>
+        <v>0.279574631491778</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>67.0509315489811</v>
+        <v>67.073376</v>
       </c>
       <c r="N14">
-        <v>67.0509315489811</v>
+        <v>134.146752</v>
       </c>
       <c r="O14">
-        <v>0.4016786965895207</v>
+        <v>0.3886152607163267</v>
       </c>
       <c r="P14">
-        <v>0.4016786965895207</v>
+        <v>0.3201976973989085</v>
       </c>
       <c r="Q14">
-        <v>3079.830252470213</v>
+        <v>3119.657482216448</v>
       </c>
       <c r="R14">
-        <v>3079.830252470213</v>
+        <v>18717.94489329869</v>
       </c>
       <c r="S14">
-        <v>0.1055431261539541</v>
+        <v>0.1018015256609789</v>
       </c>
       <c r="T14">
-        <v>0.1055431261539541</v>
+        <v>0.08951915325481569</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>45.9326989397661</v>
+        <v>46.51111466666666</v>
       </c>
       <c r="H15">
-        <v>45.9326989397661</v>
+        <v>139.533344</v>
       </c>
       <c r="I15">
-        <v>0.2627551001585968</v>
+        <v>0.2619596705320584</v>
       </c>
       <c r="J15">
-        <v>0.2627551001585968</v>
+        <v>0.279574631491778</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.0064932287969</v>
+        <v>4.219010666666667</v>
       </c>
       <c r="N15">
-        <v>4.0064932287969</v>
+        <v>12.657032</v>
       </c>
       <c r="O15">
-        <v>0.02400150066315274</v>
+        <v>0.02444445215030819</v>
       </c>
       <c r="P15">
-        <v>0.02400150066315274</v>
+        <v>0.03021133528677833</v>
       </c>
       <c r="Q15">
-        <v>184.0290472825394</v>
+        <v>196.2308888972231</v>
       </c>
       <c r="R15">
-        <v>184.0290472825394</v>
+        <v>1766.078000075008</v>
       </c>
       <c r="S15">
-        <v>0.006306516710703327</v>
+        <v>0.006403460631631402</v>
       </c>
       <c r="T15">
-        <v>0.006306516710703327</v>
+        <v>0.008446322929675601</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>45.9326989397661</v>
+        <v>46.51111466666666</v>
       </c>
       <c r="H16">
-        <v>45.9326989397661</v>
+        <v>139.533344</v>
       </c>
       <c r="I16">
-        <v>0.2627551001585968</v>
+        <v>0.2619596705320584</v>
       </c>
       <c r="J16">
-        <v>0.2627551001585968</v>
+        <v>0.279574631491778</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>12.4501840563228</v>
+        <v>12.54988666666667</v>
       </c>
       <c r="N16">
-        <v>12.4501840563228</v>
+        <v>37.64966</v>
       </c>
       <c r="O16">
-        <v>0.07458470133841665</v>
+        <v>0.07271256897710082</v>
       </c>
       <c r="P16">
-        <v>0.07458470133841665</v>
+        <v>0.0898667635266472</v>
       </c>
       <c r="Q16">
-        <v>571.8705560037511</v>
+        <v>583.7092178070044</v>
       </c>
       <c r="R16">
-        <v>571.8705560037511</v>
+        <v>5253.382960263039</v>
       </c>
       <c r="S16">
-        <v>0.0195975106704747</v>
+        <v>0.0190477606127809</v>
       </c>
       <c r="T16">
-        <v>0.0195975106704747</v>
+        <v>0.02512446729632115</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>45.9326989397661</v>
+        <v>46.51111466666666</v>
       </c>
       <c r="H17">
-        <v>45.9326989397661</v>
+        <v>139.533344</v>
       </c>
       <c r="I17">
-        <v>0.2627551001585968</v>
+        <v>0.2619596705320584</v>
       </c>
       <c r="J17">
-        <v>0.2627551001585968</v>
+        <v>0.279574631491778</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>12.1539764918563</v>
+        <v>12.18648933333333</v>
       </c>
       <c r="N17">
-        <v>12.1539764918563</v>
+        <v>36.559468</v>
       </c>
       <c r="O17">
-        <v>0.07281022534432931</v>
+        <v>0.07060708751994335</v>
       </c>
       <c r="P17">
-        <v>0.07281022534432931</v>
+        <v>0.08726456136432641</v>
       </c>
       <c r="Q17">
-        <v>558.26494312143</v>
+        <v>566.8072027667769</v>
       </c>
       <c r="R17">
-        <v>558.26494312143</v>
+        <v>5101.264824900992</v>
       </c>
       <c r="S17">
-        <v>0.01913125805291925</v>
+        <v>0.01849620938395257</v>
       </c>
       <c r="T17">
-        <v>0.01913125805291925</v>
+        <v>0.02439695758572321</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>45.9326989397661</v>
+        <v>46.51111466666666</v>
       </c>
       <c r="H18">
-        <v>45.9326989397661</v>
+        <v>139.533344</v>
       </c>
       <c r="I18">
-        <v>0.2627551001585968</v>
+        <v>0.2619596705320584</v>
       </c>
       <c r="J18">
-        <v>0.2627551001585968</v>
+        <v>0.279574631491778</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>42.5873164668638</v>
+        <v>44.80271133333334</v>
       </c>
       <c r="N18">
-        <v>42.5873164668638</v>
+        <v>134.408134</v>
       </c>
       <c r="O18">
-        <v>0.2551257286732689</v>
+        <v>0.2595816460111038</v>
       </c>
       <c r="P18">
-        <v>0.2551257286732689</v>
+        <v>0.3208215955797718</v>
       </c>
       <c r="Q18">
-        <v>1956.150385924998</v>
+        <v>2083.824044202233</v>
       </c>
       <c r="R18">
-        <v>1956.150385924998</v>
+        <v>18754.4163978201</v>
       </c>
       <c r="S18">
-        <v>0.06703558639057977</v>
+        <v>0.06799992246523817</v>
       </c>
       <c r="T18">
-        <v>0.06703558639057977</v>
+        <v>0.08969357935881894</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>45.9326989397661</v>
+        <v>46.51111466666666</v>
       </c>
       <c r="H19">
-        <v>45.9326989397661</v>
+        <v>139.533344</v>
       </c>
       <c r="I19">
-        <v>0.2627551001585968</v>
+        <v>0.2619596705320584</v>
       </c>
       <c r="J19">
-        <v>0.2627551001585968</v>
+        <v>0.279574631491778</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>28.6778785375313</v>
+        <v>31.7643625</v>
       </c>
       <c r="N19">
-        <v>28.6778785375313</v>
+        <v>63.528725</v>
       </c>
       <c r="O19">
-        <v>0.1717991473913118</v>
+        <v>0.1840389846252172</v>
       </c>
       <c r="P19">
-        <v>0.1717991473913118</v>
+        <v>0.1516380468435678</v>
       </c>
       <c r="Q19">
-        <v>1317.252361095605</v>
+        <v>1477.395906551067</v>
       </c>
       <c r="R19">
-        <v>1317.252361095605</v>
+        <v>8864.375439306401</v>
       </c>
       <c r="S19">
-        <v>0.04514110217996566</v>
+        <v>0.04821079177747647</v>
       </c>
       <c r="T19">
-        <v>0.04514110217996566</v>
+        <v>0.04239415106642344</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>65.0941580498817</v>
+        <v>65.40105833333332</v>
       </c>
       <c r="H20">
-        <v>65.0941580498817</v>
+        <v>196.203175</v>
       </c>
       <c r="I20">
-        <v>0.3723670155016433</v>
+        <v>0.3683515180453484</v>
       </c>
       <c r="J20">
-        <v>0.3723670155016433</v>
+        <v>0.3931205887830068</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>67.0509315489811</v>
+        <v>67.073376</v>
       </c>
       <c r="N20">
-        <v>67.0509315489811</v>
+        <v>134.146752</v>
       </c>
       <c r="O20">
-        <v>0.4016786965895207</v>
+        <v>0.3886152607163267</v>
       </c>
       <c r="P20">
-        <v>0.4016786965895207</v>
+        <v>0.3201976973989085</v>
       </c>
       <c r="Q20">
-        <v>4364.623935641174</v>
+        <v>4386.669776389599</v>
       </c>
       <c r="R20">
-        <v>4364.623935641174</v>
+        <v>26320.0186583376</v>
       </c>
       <c r="S20">
-        <v>0.1495718974396299</v>
+        <v>0.1431470212204478</v>
       </c>
       <c r="T20">
-        <v>0.1495718974396299</v>
+        <v>0.1258763073284219</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>65.0941580498817</v>
+        <v>65.40105833333332</v>
       </c>
       <c r="H21">
-        <v>65.0941580498817</v>
+        <v>196.203175</v>
       </c>
       <c r="I21">
-        <v>0.3723670155016433</v>
+        <v>0.3683515180453484</v>
       </c>
       <c r="J21">
-        <v>0.3723670155016433</v>
+        <v>0.3931205887830068</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>4.0064932287969</v>
+        <v>4.219010666666667</v>
       </c>
       <c r="N21">
-        <v>4.0064932287969</v>
+        <v>12.657032</v>
       </c>
       <c r="O21">
-        <v>0.02400150066315274</v>
+        <v>0.02444445215030819</v>
       </c>
       <c r="P21">
-        <v>0.02400150066315274</v>
+        <v>0.03021133528677833</v>
       </c>
       <c r="Q21">
-        <v>260.7993034610863</v>
+        <v>275.9277627196222</v>
       </c>
       <c r="R21">
-        <v>260.7993034610863</v>
+        <v>2483.3498644766</v>
       </c>
       <c r="S21">
-        <v>0.008937367169498899</v>
+        <v>0.009004151057352904</v>
       </c>
       <c r="T21">
-        <v>0.008937367169498899</v>
+        <v>0.01187669791585913</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>65.0941580498817</v>
+        <v>65.40105833333332</v>
       </c>
       <c r="H22">
-        <v>65.0941580498817</v>
+        <v>196.203175</v>
       </c>
       <c r="I22">
-        <v>0.3723670155016433</v>
+        <v>0.3683515180453484</v>
       </c>
       <c r="J22">
-        <v>0.3723670155016433</v>
+        <v>0.3931205887830068</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>12.4501840563228</v>
+        <v>12.54988666666667</v>
       </c>
       <c r="N22">
-        <v>12.4501840563228</v>
+        <v>37.64966</v>
       </c>
       <c r="O22">
-        <v>0.07458470133841665</v>
+        <v>0.07271256897710082</v>
       </c>
       <c r="P22">
-        <v>0.07458470133841665</v>
+        <v>0.0898667635266472</v>
       </c>
       <c r="Q22">
-        <v>810.4342487123936</v>
+        <v>820.7758699633887</v>
       </c>
       <c r="R22">
-        <v>810.4342487123936</v>
+        <v>7386.982829670499</v>
       </c>
       <c r="S22">
-        <v>0.02777288263946763</v>
+        <v>0.02678378516369219</v>
       </c>
       <c r="T22">
-        <v>0.02777288263946763</v>
+        <v>0.03532847498961879</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>65.0941580498817</v>
+        <v>65.40105833333332</v>
       </c>
       <c r="H23">
-        <v>65.0941580498817</v>
+        <v>196.203175</v>
       </c>
       <c r="I23">
-        <v>0.3723670155016433</v>
+        <v>0.3683515180453484</v>
       </c>
       <c r="J23">
-        <v>0.3723670155016433</v>
+        <v>0.3931205887830068</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>12.1539764918563</v>
+        <v>12.18648933333333</v>
       </c>
       <c r="N23">
-        <v>12.1539764918563</v>
+        <v>36.559468</v>
       </c>
       <c r="O23">
-        <v>0.07281022534432931</v>
+        <v>0.07060708751994335</v>
       </c>
       <c r="P23">
-        <v>0.07281022534432931</v>
+        <v>0.08726456136432641</v>
       </c>
       <c r="Q23">
-        <v>791.1528666954407</v>
+        <v>797.0092997678776</v>
       </c>
       <c r="R23">
-        <v>791.1528666954407</v>
+        <v>7173.083697910899</v>
       </c>
       <c r="S23">
-        <v>0.02711212630947001</v>
+        <v>0.02600822787273191</v>
       </c>
       <c r="T23">
-        <v>0.02711212630947001</v>
+        <v>0.03430549574343483</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>65.0941580498817</v>
+        <v>65.40105833333332</v>
       </c>
       <c r="H24">
-        <v>65.0941580498817</v>
+        <v>196.203175</v>
       </c>
       <c r="I24">
-        <v>0.3723670155016433</v>
+        <v>0.3683515180453484</v>
       </c>
       <c r="J24">
-        <v>0.3723670155016433</v>
+        <v>0.3931205887830068</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>42.5873164668638</v>
+        <v>44.80271133333334</v>
       </c>
       <c r="N24">
-        <v>42.5873164668638</v>
+        <v>134.408134</v>
       </c>
       <c r="O24">
-        <v>0.2551257286732689</v>
+        <v>0.2595816460111038</v>
       </c>
       <c r="P24">
-        <v>0.2551257286732689</v>
+        <v>0.3208215955797718</v>
       </c>
       <c r="Q24">
-        <v>2772.185509014361</v>
+        <v>2930.144737402828</v>
       </c>
       <c r="R24">
-        <v>2772.185509014361</v>
+        <v>26371.30263662545</v>
       </c>
       <c r="S24">
-        <v>0.09500040616374718</v>
+        <v>0.09561729336490032</v>
       </c>
       <c r="T24">
-        <v>0.09500040616374718</v>
+        <v>0.1261215745486236</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>65.0941580498817</v>
+        <v>65.40105833333332</v>
       </c>
       <c r="H25">
-        <v>65.0941580498817</v>
+        <v>196.203175</v>
       </c>
       <c r="I25">
-        <v>0.3723670155016433</v>
+        <v>0.3683515180453484</v>
       </c>
       <c r="J25">
-        <v>0.3723670155016433</v>
+        <v>0.3931205887830068</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>28.6778785375313</v>
+        <v>31.7643625</v>
       </c>
       <c r="N25">
-        <v>28.6778785375313</v>
+        <v>63.528725</v>
       </c>
       <c r="O25">
-        <v>0.1717991473913118</v>
+        <v>0.1840389846252172</v>
       </c>
       <c r="P25">
-        <v>0.1717991473913118</v>
+        <v>0.1516380468435678</v>
       </c>
       <c r="Q25">
-        <v>1866.762358057373</v>
+        <v>2077.422924783646</v>
       </c>
       <c r="R25">
-        <v>1866.762358057373</v>
+        <v>12464.53754870187</v>
       </c>
       <c r="S25">
-        <v>0.06397233577982969</v>
+        <v>0.06779103936622329</v>
       </c>
       <c r="T25">
-        <v>0.06397233577982969</v>
+        <v>0.05961203825704854</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>13.7623499900115</v>
+        <v>14.25188766666667</v>
       </c>
       <c r="H26">
-        <v>13.7623499900115</v>
+        <v>42.755663</v>
       </c>
       <c r="I26">
-        <v>0.07872665298386122</v>
+        <v>0.08026941139502627</v>
       </c>
       <c r="J26">
-        <v>0.07872665298386122</v>
+        <v>0.0856669695195698</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>67.0509315489811</v>
+        <v>67.073376</v>
       </c>
       <c r="N26">
-        <v>67.0509315489811</v>
+        <v>134.146752</v>
       </c>
       <c r="O26">
-        <v>0.4016786965895207</v>
+        <v>0.3886152607163267</v>
       </c>
       <c r="P26">
-        <v>0.4016786965895207</v>
+        <v>0.3201976973989085</v>
       </c>
       <c r="Q26">
-        <v>922.7783871333818</v>
+        <v>955.9222201760959</v>
       </c>
       <c r="R26">
-        <v>922.7783871333818</v>
+        <v>5735.533321056575</v>
       </c>
       <c r="S26">
-        <v>0.03162281935741287</v>
+        <v>0.03119391823682422</v>
       </c>
       <c r="T26">
-        <v>0.03162281935741287</v>
+        <v>0.02743036638330873</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>13.7623499900115</v>
+        <v>14.25188766666667</v>
       </c>
       <c r="H27">
-        <v>13.7623499900115</v>
+        <v>42.755663</v>
       </c>
       <c r="I27">
-        <v>0.07872665298386122</v>
+        <v>0.08026941139502627</v>
       </c>
       <c r="J27">
-        <v>0.07872665298386122</v>
+        <v>0.0856669695195698</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>4.0064932287969</v>
+        <v>4.219010666666667</v>
       </c>
       <c r="N27">
-        <v>4.0064932287969</v>
+        <v>12.657032</v>
       </c>
       <c r="O27">
-        <v>0.02400150066315274</v>
+        <v>0.02444445215030819</v>
       </c>
       <c r="P27">
-        <v>0.02400150066315274</v>
+        <v>0.03021133528677833</v>
       </c>
       <c r="Q27">
-        <v>55.13876204731417</v>
+        <v>60.12886608580177</v>
       </c>
       <c r="R27">
-        <v>55.13876204731417</v>
+        <v>541.1597947722161</v>
       </c>
       <c r="S27">
-        <v>0.001889557813799941</v>
+        <v>0.001962141785979123</v>
       </c>
       <c r="T27">
-        <v>0.001889557813799941</v>
+        <v>0.002588113539157943</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>13.7623499900115</v>
+        <v>14.25188766666667</v>
       </c>
       <c r="H28">
-        <v>13.7623499900115</v>
+        <v>42.755663</v>
       </c>
       <c r="I28">
-        <v>0.07872665298386122</v>
+        <v>0.08026941139502627</v>
       </c>
       <c r="J28">
-        <v>0.07872665298386122</v>
+        <v>0.0856669695195698</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>12.4501840563228</v>
+        <v>12.54988666666667</v>
       </c>
       <c r="N28">
-        <v>12.4501840563228</v>
+        <v>37.64966</v>
       </c>
       <c r="O28">
-        <v>0.07458470133841665</v>
+        <v>0.07271256897710082</v>
       </c>
       <c r="P28">
-        <v>0.07458470133841665</v>
+        <v>0.0898667635266472</v>
       </c>
       <c r="Q28">
-        <v>171.3437904231754</v>
+        <v>178.8595750027311</v>
       </c>
       <c r="R28">
-        <v>171.3437904231754</v>
+        <v>1609.73617502458</v>
       </c>
       <c r="S28">
-        <v>0.005871803900174457</v>
+        <v>0.00583659511281213</v>
       </c>
       <c r="T28">
-        <v>0.005871803900174457</v>
+        <v>0.007698613291859673</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>13.7623499900115</v>
+        <v>14.25188766666667</v>
       </c>
       <c r="H29">
-        <v>13.7623499900115</v>
+        <v>42.755663</v>
       </c>
       <c r="I29">
-        <v>0.07872665298386122</v>
+        <v>0.08026941139502627</v>
       </c>
       <c r="J29">
-        <v>0.07872665298386122</v>
+        <v>0.0856669695195698</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>12.1539764918563</v>
+        <v>12.18648933333333</v>
       </c>
       <c r="N29">
-        <v>12.1539764918563</v>
+        <v>36.559468</v>
       </c>
       <c r="O29">
-        <v>0.07281022534432931</v>
+        <v>0.07060708751994335</v>
       </c>
       <c r="P29">
-        <v>0.07281022534432931</v>
+        <v>0.08726456136432641</v>
       </c>
       <c r="Q29">
-        <v>167.2672782512986</v>
+        <v>173.6804770296982</v>
       </c>
       <c r="R29">
-        <v>167.2672782512986</v>
+        <v>1563.124293267284</v>
       </c>
       <c r="S29">
-        <v>0.005732105344359751</v>
+        <v>0.005667589355542959</v>
       </c>
       <c r="T29">
-        <v>0.005732105344359751</v>
+        <v>0.007475690518536379</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>13.7623499900115</v>
+        <v>14.25188766666667</v>
       </c>
       <c r="H30">
-        <v>13.7623499900115</v>
+        <v>42.755663</v>
       </c>
       <c r="I30">
-        <v>0.07872665298386122</v>
+        <v>0.08026941139502627</v>
       </c>
       <c r="J30">
-        <v>0.07872665298386122</v>
+        <v>0.0856669695195698</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>42.5873164668638</v>
+        <v>44.80271133333334</v>
       </c>
       <c r="N30">
-        <v>42.5873164668638</v>
+        <v>134.408134</v>
       </c>
       <c r="O30">
-        <v>0.2551257286732689</v>
+        <v>0.2595816460111038</v>
       </c>
       <c r="P30">
-        <v>0.2551257286732689</v>
+        <v>0.3208215955797718</v>
       </c>
       <c r="Q30">
-        <v>586.1015543523596</v>
+        <v>638.5232090847603</v>
       </c>
       <c r="R30">
-        <v>586.1015543523596</v>
+        <v>5746.708881762843</v>
       </c>
       <c r="S30">
-        <v>0.02008519470851518</v>
+        <v>0.02083646593426337</v>
       </c>
       <c r="T30">
-        <v>0.02008519470851518</v>
+        <v>0.02748381384975206</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>13.7623499900115</v>
+        <v>14.25188766666667</v>
       </c>
       <c r="H31">
-        <v>13.7623499900115</v>
+        <v>42.755663</v>
       </c>
       <c r="I31">
-        <v>0.07872665298386122</v>
+        <v>0.08026941139502627</v>
       </c>
       <c r="J31">
-        <v>0.07872665298386122</v>
+        <v>0.0856669695195698</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>28.6778785375313</v>
+        <v>31.7643625</v>
       </c>
       <c r="N31">
-        <v>28.6778785375313</v>
+        <v>63.528725</v>
       </c>
       <c r="O31">
-        <v>0.1717991473913118</v>
+        <v>0.1840389846252172</v>
       </c>
       <c r="P31">
-        <v>0.1717991473913118</v>
+        <v>0.1516380468435678</v>
       </c>
       <c r="Q31">
-        <v>394.6750014045449</v>
+        <v>452.7021261532792</v>
       </c>
       <c r="R31">
-        <v>394.6750014045449</v>
+        <v>2716.212756919675</v>
       </c>
       <c r="S31">
-        <v>0.01352517185959903</v>
+        <v>0.01477270096960447</v>
       </c>
       <c r="T31">
-        <v>0.01352517185959903</v>
+        <v>0.01299037193695502</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>12.5240841664582</v>
+        <v>12.562933</v>
       </c>
       <c r="H32">
-        <v>12.5240841664582</v>
+        <v>25.125866</v>
       </c>
       <c r="I32">
-        <v>0.07164323163042896</v>
+        <v>0.07075688925500828</v>
       </c>
       <c r="J32">
-        <v>0.07164323163042896</v>
+        <v>0.05034319773674883</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>67.0509315489811</v>
+        <v>67.073376</v>
       </c>
       <c r="N32">
-        <v>67.0509315489811</v>
+        <v>134.146752</v>
       </c>
       <c r="O32">
-        <v>0.4016786965895207</v>
+        <v>0.3886152607163267</v>
       </c>
       <c r="P32">
-        <v>0.4016786965895207</v>
+        <v>0.3201976973989085</v>
       </c>
       <c r="Q32">
-        <v>839.7515101588667</v>
+        <v>842.638328771808</v>
       </c>
       <c r="R32">
-        <v>839.7515101588667</v>
+        <v>3370.553315087232</v>
       </c>
       <c r="S32">
-        <v>0.02877755990077182</v>
+        <v>0.0274972069653113</v>
       </c>
       <c r="T32">
-        <v>0.02877755990077182</v>
+        <v>0.01611977599500491</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>12.5240841664582</v>
+        <v>12.562933</v>
       </c>
       <c r="H33">
-        <v>12.5240841664582</v>
+        <v>25.125866</v>
       </c>
       <c r="I33">
-        <v>0.07164323163042896</v>
+        <v>0.07075688925500828</v>
       </c>
       <c r="J33">
-        <v>0.07164323163042896</v>
+        <v>0.05034319773674883</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>4.0064932287969</v>
+        <v>4.219010666666667</v>
       </c>
       <c r="N33">
-        <v>4.0064932287969</v>
+        <v>12.657032</v>
       </c>
       <c r="O33">
-        <v>0.02400150066315274</v>
+        <v>0.02444445215030819</v>
       </c>
       <c r="P33">
-        <v>0.02400150066315274</v>
+        <v>0.03021133528677833</v>
       </c>
       <c r="Q33">
-        <v>50.17765840979725</v>
+        <v>53.00314833161867</v>
       </c>
       <c r="R33">
-        <v>50.17765840979725</v>
+        <v>318.018889989712</v>
       </c>
       <c r="S33">
-        <v>0.001719545071488146</v>
+        <v>0.001729613393698706</v>
       </c>
       <c r="T33">
-        <v>0.001719545071488146</v>
+        <v>0.001520935226233499</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>12.5240841664582</v>
+        <v>12.562933</v>
       </c>
       <c r="H34">
-        <v>12.5240841664582</v>
+        <v>25.125866</v>
       </c>
       <c r="I34">
-        <v>0.07164323163042896</v>
+        <v>0.07075688925500828</v>
       </c>
       <c r="J34">
-        <v>0.07164323163042896</v>
+        <v>0.05034319773674883</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>12.4501840563228</v>
+        <v>12.54988666666667</v>
       </c>
       <c r="N34">
-        <v>12.4501840563228</v>
+        <v>37.64966</v>
       </c>
       <c r="O34">
-        <v>0.07458470133841665</v>
+        <v>0.07271256897710082</v>
       </c>
       <c r="P34">
-        <v>0.07458470133841665</v>
+        <v>0.0898667635266472</v>
       </c>
       <c r="Q34">
-        <v>155.9271530092827</v>
+        <v>157.6633853509267</v>
       </c>
       <c r="R34">
-        <v>155.9271530092827</v>
+        <v>945.98031210556</v>
       </c>
       <c r="S34">
-        <v>0.005343489034074549</v>
+        <v>0.005144915190559873</v>
       </c>
       <c r="T34">
-        <v>0.005343489034074549</v>
+        <v>0.004524180246183647</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>12.5240841664582</v>
+        <v>12.562933</v>
       </c>
       <c r="H35">
-        <v>12.5240841664582</v>
+        <v>25.125866</v>
       </c>
       <c r="I35">
-        <v>0.07164323163042896</v>
+        <v>0.07075688925500828</v>
       </c>
       <c r="J35">
-        <v>0.07164323163042896</v>
+        <v>0.05034319773674883</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>12.1539764918563</v>
+        <v>12.18648933333333</v>
       </c>
       <c r="N35">
-        <v>12.1539764918563</v>
+        <v>36.559468</v>
       </c>
       <c r="O35">
-        <v>0.07281022534432931</v>
+        <v>0.07060708751994335</v>
       </c>
       <c r="P35">
-        <v>0.07281022534432931</v>
+        <v>0.08726456136432641</v>
       </c>
       <c r="Q35">
-        <v>152.2174245411627</v>
+        <v>153.0980489998813</v>
       </c>
       <c r="R35">
-        <v>152.2174245411627</v>
+        <v>918.588293999288</v>
       </c>
       <c r="S35">
-        <v>0.005216359839407513</v>
+        <v>0.004995937872267309</v>
       </c>
       <c r="T35">
-        <v>0.005216359839407513</v>
+        <v>0.004393177068174936</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>12.5240841664582</v>
+        <v>12.562933</v>
       </c>
       <c r="H36">
-        <v>12.5240841664582</v>
+        <v>25.125866</v>
       </c>
       <c r="I36">
-        <v>0.07164323163042896</v>
+        <v>0.07075688925500828</v>
       </c>
       <c r="J36">
-        <v>0.07164323163042896</v>
+        <v>0.05034319773674883</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>42.5873164668638</v>
+        <v>44.80271133333334</v>
       </c>
       <c r="N36">
-        <v>42.5873164668638</v>
+        <v>134.408134</v>
       </c>
       <c r="O36">
-        <v>0.2551257286732689</v>
+        <v>0.2595816460111038</v>
       </c>
       <c r="P36">
-        <v>0.2551257286732689</v>
+        <v>0.3208215955797718</v>
       </c>
       <c r="Q36">
-        <v>533.3671358545935</v>
+        <v>562.8534606990074</v>
       </c>
       <c r="R36">
-        <v>533.3671358545935</v>
+        <v>3377.120764194045</v>
       </c>
       <c r="S36">
-        <v>0.01827803167422098</v>
+        <v>0.01836718977944043</v>
       </c>
       <c r="T36">
-        <v>0.01827803167422098</v>
+        <v>0.01615118502449172</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>12.5240841664582</v>
+        <v>12.562933</v>
       </c>
       <c r="H37">
-        <v>12.5240841664582</v>
+        <v>25.125866</v>
       </c>
       <c r="I37">
-        <v>0.07164323163042896</v>
+        <v>0.07075688925500828</v>
       </c>
       <c r="J37">
-        <v>0.07164323163042896</v>
+        <v>0.05034319773674883</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>28.6778785375313</v>
+        <v>31.7643625</v>
       </c>
       <c r="N37">
-        <v>28.6778785375313</v>
+        <v>63.528725</v>
       </c>
       <c r="O37">
-        <v>0.1717991473913118</v>
+        <v>0.1840389846252172</v>
       </c>
       <c r="P37">
-        <v>0.1717991473913118</v>
+        <v>0.1516380468435678</v>
       </c>
       <c r="Q37">
-        <v>359.1641645195072</v>
+        <v>399.0535578752126</v>
       </c>
       <c r="R37">
-        <v>359.1641645195072</v>
+        <v>1596.21423150085</v>
       </c>
       <c r="S37">
-        <v>0.01230824611046595</v>
+        <v>0.01302202605373066</v>
       </c>
       <c r="T37">
-        <v>0.01230824611046595</v>
+        <v>0.007633944176660116</v>
       </c>
     </row>
   </sheetData>
